--- a/Requisitos ManageWood/Simulacion de datos.xlsx
+++ b/Requisitos ManageWood/Simulacion de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerof\OneDrive\Escritorio\ManageWood\Manage-Wood\Requisitos ManageWood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE775F3-0FFC-4F15-85F2-EAD3553D24B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7342B-16AB-4A3E-8A04-ED3A74B88A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="25" xr2:uid="{813269E5-03E4-4465-B253-AE7C43383A1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="18" xr2:uid="{813269E5-03E4-4465-B253-AE7C43383A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="281">
   <si>
     <t>Descripción</t>
   </si>
@@ -927,6 +927,42 @@
   </si>
   <si>
     <t>Metros cuadrados de meson</t>
+  </si>
+  <si>
+    <t>JuanJose Diaz</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Corre electronico</t>
+  </si>
+  <si>
+    <t>jero@hotmail.com</t>
+  </si>
+  <si>
+    <t>juanjose@hotmail.com</t>
+  </si>
+  <si>
+    <t>paula@hotmail.com</t>
+  </si>
+  <si>
+    <t>carlos@hotmail.com</t>
+  </si>
+  <si>
+    <t>federico@hotmail.com</t>
+  </si>
+  <si>
+    <t>majo@hotmail.com</t>
+  </si>
+  <si>
+    <t>miguel@hotmail.com</t>
+  </si>
+  <si>
+    <t>margarita@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cristiano@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1254,7 +1290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1343,7 +1379,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,7 +1847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1815,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E5F57F-9561-4F20-A8D4-9A6C0F45247C}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850DA7B1-0DF2-403A-942A-B7EEB527879D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2385,7 +2429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46514DE8-8252-4516-85A0-6D2BEB8D6B44}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2466,7 +2512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479DB6F8-1AE2-41A4-A935-65513730E2C3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2628,7 +2676,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,9 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DBDB8B-BCE1-40BD-B8BC-EE5A22F28560}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2862,32 +2908,34 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BA918-EFF1-430D-9565-C8EDEBB69218}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="44.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="7" customWidth="1"/>
-    <col min="5" max="7" width="30.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="48.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="7"/>
+    <col min="4" max="6" width="22.28515625" style="7" customWidth="1"/>
+    <col min="7" max="9" width="30.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="48.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>87</v>
       </c>
@@ -2897,8 +2945,10 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>100</v>
       </c>
@@ -2911,17 +2961,23 @@
       <c r="D2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -2934,162 +2990,238 @@
       <c r="D3" s="15">
         <v>107291560</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="15">
+        <v>3101554512</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="27" t="str">
         <f>Sede!B3</f>
         <v>Galeria</v>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="H3" s="27" t="str">
         <f>TipoColaborador!B3</f>
         <v>Dueño</v>
       </c>
-      <c r="G3" s="27" t="str">
+      <c r="I3" s="27" t="str">
         <f>EstadoColaborador!B3</f>
         <v>Contratado</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="15">
-        <v>39447003</v>
-      </c>
-      <c r="E4" s="27" t="str">
+        <v>1007238135</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3105124875</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="27" t="str">
         <f>Sede!B4</f>
         <v>La ceja</v>
       </c>
-      <c r="F4" s="27" t="str">
+      <c r="H4" s="27" t="str">
+        <f>TipoColaborador!B3</f>
+        <v>Dueño</v>
+      </c>
+      <c r="I4" s="27" t="str">
+        <f>EstadoColaborador!B3</f>
+        <v>Contratado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="15">
+        <v>39447003</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3057375235</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="27" t="str">
+        <f>Sede!B4</f>
+        <v>La ceja</v>
+      </c>
+      <c r="H5" s="27" t="str">
         <f>TipoColaborador!B4</f>
         <v>Carpintero</v>
       </c>
-      <c r="G4" s="27" t="str">
+      <c r="I5" s="27" t="str">
         <f>EstadoColaborador!B4</f>
         <v>Despedido</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C6" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D6" s="15">
         <v>15404269</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E6" s="15">
+        <v>3053761234</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="27" t="str">
         <f>Sede!B5</f>
         <v>Llanogrande</v>
       </c>
-      <c r="F5" s="27" t="str">
+      <c r="H6" s="27" t="str">
         <f>TipoColaborador!B5</f>
         <v>Vendedor en el local</v>
       </c>
-      <c r="G5" s="27" t="str">
+      <c r="I6" s="27" t="str">
         <f>EstadoColaborador!B5</f>
         <v>Pendiente</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C7" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D7" s="21">
         <v>105879452</v>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="E7" s="21">
+        <v>3012456789</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="27" t="str">
         <f>Sede!B4</f>
         <v>La ceja</v>
       </c>
-      <c r="F6" s="27" t="str">
+      <c r="H7" s="27" t="str">
         <f>TipoColaborador!B6</f>
         <v>Vendedor Online</v>
       </c>
-      <c r="G6" s="27" t="str">
+      <c r="I7" s="27" t="str">
         <f>EstadoColaborador!B4</f>
         <v>Despedido</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C8" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <v>100715794</v>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E8" s="15">
+        <v>3067894564</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="27" t="str">
         <f>Sede!B3</f>
         <v>Galeria</v>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="H8" s="27" t="str">
         <f>TipoColaborador!B5</f>
         <v>Vendedor en el local</v>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="I8" s="27" t="str">
         <f>EstadoColaborador!B5</f>
         <v>Pendiente</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="21">
         <v>155487481</v>
       </c>
-      <c r="E8" s="27" t="str">
+      <c r="E9" s="21">
+        <v>3658478454</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="27" t="str">
         <f>Sede!B3</f>
         <v>Galeria</v>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="H9" s="27" t="str">
         <f>TipoColaborador!B4</f>
         <v>Carpintero</v>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="I9" s="27" t="str">
         <f>EstadoColaborador!B4</f>
         <v>Despedido</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" location="Sede!A1" display="Sede" xr:uid="{60DFC860-D8A9-4A88-AB1C-A0D2A98CF3BB}"/>
+    <hyperlink ref="G2" location="Sede!A1" display="Sede" xr:uid="{60DFC860-D8A9-4A88-AB1C-A0D2A98CF3BB}"/>
     <hyperlink ref="A1" location="Entidades!A1" display="&lt;-Volver al inicio" xr:uid="{2A1E6EDB-113B-453E-9741-A1B59226489A}"/>
     <hyperlink ref="C2" location="Proveedor!A1" display="Proveedor" xr:uid="{5200A8C7-668C-4D98-B488-54F87D704F56}"/>
-    <hyperlink ref="F2" location="TipoColaborador!A1" display="Tipo de colaborador" xr:uid="{1D550029-F77E-4047-9A5E-EBC004B9DB0D}"/>
-    <hyperlink ref="G2" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{13B6306B-3007-405B-855F-996667A5D680}"/>
-    <hyperlink ref="G3:G6" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{5466F018-7970-449A-8DFE-FF42FC04232F}"/>
-    <hyperlink ref="G4:G8" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{D3835E38-81A6-44EC-8374-3CDD2CEF517F}"/>
+    <hyperlink ref="H2" location="TipoColaborador!A1" display="Tipo de colaborador" xr:uid="{1D550029-F77E-4047-9A5E-EBC004B9DB0D}"/>
+    <hyperlink ref="I2" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{13B6306B-3007-405B-855F-996667A5D680}"/>
+    <hyperlink ref="I3:I7" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{5466F018-7970-449A-8DFE-FF42FC04232F}"/>
+    <hyperlink ref="I5:I9" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{D3835E38-81A6-44EC-8374-3CDD2CEF517F}"/>
+    <hyperlink ref="I4" location="EstadoColaborador!A1" display="Estado del colaborador" xr:uid="{E8BD58FF-2442-4E13-8A4C-50707A51A855}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A69F97D3-2A17-448A-98A7-FB979747F288}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{9B43D4DE-F0EC-4C57-98DB-00BE7DCE8A0D}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{C4EA2030-72FD-4F32-AEC9-7B03C5514DE2}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{4A89394C-D655-4392-978D-CF961C124A2E}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{0A575320-1E87-42A2-9B49-D2BA69B0E703}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{42ACAB28-F375-4A13-BB58-4FAC8DF35EDA}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{7C43DC1B-685A-4878-9214-03C7CA3739D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E5 G5:G7 F6" formula="1"/>
+    <ignoredError sqref="G6 I6:I8 H7" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3098,7 +3230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17731B63-FE93-4DBA-AFB8-1FFAD070719C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3172,7 +3306,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3423,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5CFB-861F-4F37-A68B-8951BBC1A9B3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,30 +3600,32 @@
     <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="44.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="7"/>
+    <col min="4" max="6" width="22.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>100</v>
       </c>
@@ -3502,8 +3638,14 @@
       <c r="D2" s="29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3516,8 +3658,14 @@
       <c r="D3" s="15">
         <v>107291560</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="15">
+        <v>3101554512</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -3530,8 +3678,14 @@
       <c r="D4" s="15">
         <v>39447003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="15">
+        <v>3105124875</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -3544,8 +3698,14 @@
       <c r="D5" s="15">
         <v>15404269</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="15">
+        <v>3057375235</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -3558,8 +3718,14 @@
       <c r="D6" s="21">
         <v>105879452</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="15">
+        <v>3053761234</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -3572,8 +3738,14 @@
       <c r="D7" s="15">
         <v>100715794</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="21">
+        <v>3012456789</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -3585,12 +3757,24 @@
       </c>
       <c r="D8" s="21">
         <v>155487481</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3067894564</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Entidades!A1" display="&lt;-Volver al inicio" xr:uid="{82EF864B-DAE4-419A-85E8-323E0A5925FA}"/>
     <hyperlink ref="C2" location="Proveedor!A1" display="Proveedor" xr:uid="{6356AF79-A51F-4AF5-9FD1-F231B5DC920A}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A05E2F82-7099-46C9-ABAB-4C2E2D3A393B}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{D720FDCD-B9B7-4447-B310-A3BB7B0DC93D}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{F7A8658A-C5CF-4F36-8EC9-E1D98E7D5EE2}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{53677DF6-8B46-4EF3-9253-057A2B6EF37B}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{47BD1D18-0950-41B0-A128-94DA6F163407}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{6469E3A4-D5E0-4C5B-9765-2FC7D0356A13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3684,9 +3868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CB477-2F52-4B21-A067-0036CFCD72C4}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3933,7 +4115,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,7 +4411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1643ECC-E9BF-4150-8297-E32E3E9E8928}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4367,7 +4551,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" location="Proveedor!A1" display="Proveedor" xr:uid="{4BA23412-1950-4049-972C-F38AFE9E1D75}"/>
+    <hyperlink ref="E2" location="Moneda!A1" display="Moneda" xr:uid="{4BA23412-1950-4049-972C-F38AFE9E1D75}"/>
     <hyperlink ref="A1" location="Entidades!A1" display="&lt;-Volver al inicio" xr:uid="{A48FFEAE-CF85-493C-9252-8772F9485DAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4378,7 +4562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4012BB0-4258-4336-A115-CDB80EE94E71}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4474,7 +4660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5265A2-A21C-44CB-B559-4E7708E7F0BE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4701,7 +4889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11E49F7-ECA8-4025-A816-6FC4A97E6DE9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4790,9 +4980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E92F-EBC3-4A0C-A694-540EF2806A9C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5349,7 +5537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC62BBBF-8CC1-41E9-8D40-CC1D80DE61FD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5486,7 +5676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80B4677-B339-4476-A23E-B335520BA353}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5566,7 +5758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6960179A-72AB-4C3C-8C22-B339C168E6AF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
